--- a/results/github_ci_statistics.xlsx
+++ b/results/github_ci_statistics.xlsx
@@ -497,19 +497,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130</v>
+        <v>214</v>
       </c>
       <c r="C3" t="n">
-        <v>314</v>
+        <v>874</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="F3" t="n">
-        <v>2.415384615384615</v>
+        <v>4.08411214953271</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="C4" t="n">
-        <v>4008</v>
+        <v>3564</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>576</v>
+        <v>312</v>
       </c>
       <c r="F4" t="n">
-        <v>9.364485981308411</v>
+        <v>7.318275154004107</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>16.75</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
